--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Plau-Plaur.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Plau-Plaur.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.6838032821809</v>
+        <v>26.29132066666667</v>
       </c>
       <c r="H2">
-        <v>19.6838032821809</v>
+        <v>78.87396200000001</v>
       </c>
       <c r="I2">
-        <v>0.1103222436779623</v>
+        <v>0.1411782207947891</v>
       </c>
       <c r="J2">
-        <v>0.1103222436779623</v>
+        <v>0.1411782207947891</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.4122049827738</v>
+        <v>43.91845900000001</v>
       </c>
       <c r="N2">
-        <v>17.4122049827738</v>
+        <v>131.755377</v>
       </c>
       <c r="O2">
-        <v>0.6880473828339218</v>
+        <v>0.8150909120558799</v>
       </c>
       <c r="P2">
-        <v>0.6880473828339218</v>
+        <v>0.81509091205588</v>
       </c>
       <c r="Q2">
-        <v>342.7384175899296</v>
+        <v>1154.674288754853</v>
       </c>
       <c r="R2">
-        <v>342.7384175899296</v>
+        <v>10392.06859879368</v>
       </c>
       <c r="S2">
-        <v>0.07590693103098814</v>
+        <v>0.115073084750051</v>
       </c>
       <c r="T2">
-        <v>0.07590693103098814</v>
+        <v>0.115073084750051</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.6838032821809</v>
+        <v>26.29132066666667</v>
       </c>
       <c r="H3">
-        <v>19.6838032821809</v>
+        <v>78.87396200000001</v>
       </c>
       <c r="I3">
-        <v>0.1103222436779623</v>
+        <v>0.1411782207947891</v>
       </c>
       <c r="J3">
-        <v>0.1103222436779623</v>
+        <v>0.1411782207947891</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.06026640130944</v>
+        <v>2.100310333333333</v>
       </c>
       <c r="N3">
-        <v>2.06026640130944</v>
+        <v>6.300930999999999</v>
       </c>
       <c r="O3">
-        <v>0.08141191232035462</v>
+        <v>0.03898005312975703</v>
       </c>
       <c r="P3">
-        <v>0.08141191232035462</v>
+        <v>0.03898005312975703</v>
       </c>
       <c r="Q3">
-        <v>40.55387855226179</v>
+        <v>55.21993247318022</v>
       </c>
       <c r="R3">
-        <v>40.55387855226179</v>
+        <v>496.979392258622</v>
       </c>
       <c r="S3">
-        <v>0.008981544829295064</v>
+        <v>0.005503134547345446</v>
       </c>
       <c r="T3">
-        <v>0.008981544829295064</v>
+        <v>0.005503134547345446</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.6838032821809</v>
+        <v>26.29132066666667</v>
       </c>
       <c r="H4">
-        <v>19.6838032821809</v>
+        <v>78.87396200000001</v>
       </c>
       <c r="I4">
-        <v>0.1103222436779623</v>
+        <v>0.1411782207947891</v>
       </c>
       <c r="J4">
-        <v>0.1103222436779623</v>
+        <v>0.1411782207947891</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.83422320874641</v>
+        <v>7.8629</v>
       </c>
       <c r="N4">
-        <v>5.83422320874641</v>
+        <v>23.5887</v>
       </c>
       <c r="O4">
-        <v>0.2305407048457236</v>
+        <v>0.1459290348143631</v>
       </c>
       <c r="P4">
-        <v>0.2305407048457236</v>
+        <v>0.1459290348143631</v>
       </c>
       <c r="Q4">
-        <v>114.8397019452986</v>
+        <v>206.7260252699333</v>
       </c>
       <c r="R4">
-        <v>114.8397019452986</v>
+        <v>1860.5342274294</v>
       </c>
       <c r="S4">
-        <v>0.02543376781767911</v>
+        <v>0.02060200149739261</v>
       </c>
       <c r="T4">
-        <v>0.02543376781767911</v>
+        <v>0.02060200149739261</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>143.059322363049</v>
+        <v>143.4723713333333</v>
       </c>
       <c r="H5">
-        <v>143.059322363049</v>
+        <v>430.417114</v>
       </c>
       <c r="I5">
-        <v>0.8018077195695177</v>
+        <v>0.7704129577533824</v>
       </c>
       <c r="J5">
-        <v>0.8018077195695177</v>
+        <v>0.7704129577533824</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.4122049827738</v>
+        <v>43.91845900000001</v>
       </c>
       <c r="N5">
-        <v>17.4122049827738</v>
+        <v>131.755377</v>
       </c>
       <c r="O5">
-        <v>0.6880473828339218</v>
+        <v>0.8150909120558799</v>
       </c>
       <c r="P5">
-        <v>0.6880473828339218</v>
+        <v>0.81509091205588</v>
       </c>
       <c r="Q5">
-        <v>2490.978245682125</v>
+        <v>6301.085458035775</v>
       </c>
       <c r="R5">
-        <v>2490.978245682125</v>
+        <v>56709.76912232198</v>
       </c>
       <c r="S5">
-        <v>0.5516817029858417</v>
+        <v>0.6279566003948726</v>
       </c>
       <c r="T5">
-        <v>0.5516817029858417</v>
+        <v>0.6279566003948726</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>143.059322363049</v>
+        <v>143.4723713333333</v>
       </c>
       <c r="H6">
-        <v>143.059322363049</v>
+        <v>430.417114</v>
       </c>
       <c r="I6">
-        <v>0.8018077195695177</v>
+        <v>0.7704129577533824</v>
       </c>
       <c r="J6">
-        <v>0.8018077195695177</v>
+        <v>0.7704129577533824</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.06026640130944</v>
+        <v>2.100310333333333</v>
       </c>
       <c r="N6">
-        <v>2.06026640130944</v>
+        <v>6.300930999999999</v>
       </c>
       <c r="O6">
-        <v>0.08141191232035462</v>
+        <v>0.03898005312975703</v>
       </c>
       <c r="P6">
-        <v>0.08141191232035462</v>
+        <v>0.03898005312975703</v>
       </c>
       <c r="Q6">
-        <v>294.7403152586861</v>
+        <v>301.3365040592371</v>
       </c>
       <c r="R6">
-        <v>294.7403152586861</v>
+        <v>2712.028536533134</v>
       </c>
       <c r="S6">
-        <v>0.06527669976337706</v>
+        <v>0.0300307380250801</v>
       </c>
       <c r="T6">
-        <v>0.06527669976337706</v>
+        <v>0.0300307380250801</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>143.059322363049</v>
+        <v>143.4723713333333</v>
       </c>
       <c r="H7">
-        <v>143.059322363049</v>
+        <v>430.417114</v>
       </c>
       <c r="I7">
-        <v>0.8018077195695177</v>
+        <v>0.7704129577533824</v>
       </c>
       <c r="J7">
-        <v>0.8018077195695177</v>
+        <v>0.7704129577533824</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.83422320874641</v>
+        <v>7.8629</v>
       </c>
       <c r="N7">
-        <v>5.83422320874641</v>
+        <v>23.5887</v>
       </c>
       <c r="O7">
-        <v>0.2305407048457236</v>
+        <v>0.1459290348143631</v>
       </c>
       <c r="P7">
-        <v>0.2305407048457236</v>
+        <v>0.1459290348143631</v>
       </c>
       <c r="Q7">
-        <v>834.6400187580348</v>
+        <v>1128.108908556866</v>
       </c>
       <c r="R7">
-        <v>834.6400187580348</v>
+        <v>10152.9801770118</v>
       </c>
       <c r="S7">
-        <v>0.1848493168202989</v>
+        <v>0.1124256193334298</v>
       </c>
       <c r="T7">
-        <v>0.1848493168202989</v>
+        <v>0.1124256193334298</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.6778584279293</v>
+        <v>16.46418733333334</v>
       </c>
       <c r="H8">
-        <v>15.6778584279293</v>
+        <v>49.39256200000001</v>
       </c>
       <c r="I8">
-        <v>0.08787003675252009</v>
+        <v>0.08840882145182853</v>
       </c>
       <c r="J8">
-        <v>0.08787003675252009</v>
+        <v>0.08840882145182853</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.4122049827738</v>
+        <v>43.91845900000001</v>
       </c>
       <c r="N8">
-        <v>17.4122049827738</v>
+        <v>131.755377</v>
       </c>
       <c r="O8">
-        <v>0.6880473828339218</v>
+        <v>0.8150909120558799</v>
       </c>
       <c r="P8">
-        <v>0.6880473828339218</v>
+        <v>0.81509091205588</v>
       </c>
       <c r="Q8">
-        <v>272.9860846380128</v>
+        <v>723.0817363673195</v>
       </c>
       <c r="R8">
-        <v>272.9860846380128</v>
+        <v>6507.735627305875</v>
       </c>
       <c r="S8">
-        <v>0.06045874881709196</v>
+        <v>0.07206122691095636</v>
       </c>
       <c r="T8">
-        <v>0.06045874881709196</v>
+        <v>0.07206122691095637</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.6778584279293</v>
+        <v>16.46418733333334</v>
       </c>
       <c r="H9">
-        <v>15.6778584279293</v>
+        <v>49.39256200000001</v>
       </c>
       <c r="I9">
-        <v>0.08787003675252009</v>
+        <v>0.08840882145182853</v>
       </c>
       <c r="J9">
-        <v>0.08787003675252009</v>
+        <v>0.08840882145182853</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.06026640130944</v>
+        <v>2.100310333333333</v>
       </c>
       <c r="N9">
-        <v>2.06026640130944</v>
+        <v>6.300930999999999</v>
       </c>
       <c r="O9">
-        <v>0.08141191232035462</v>
+        <v>0.03898005312975703</v>
       </c>
       <c r="P9">
-        <v>0.08141191232035462</v>
+        <v>0.03898005312975703</v>
       </c>
       <c r="Q9">
-        <v>32.30056496354877</v>
+        <v>34.57990278613578</v>
       </c>
       <c r="R9">
-        <v>32.30056496354877</v>
+        <v>311.219125075222</v>
       </c>
       <c r="S9">
-        <v>0.007153667727682504</v>
+        <v>0.003446180557331479</v>
       </c>
       <c r="T9">
-        <v>0.007153667727682504</v>
+        <v>0.003446180557331479</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.6778584279293</v>
+        <v>16.46418733333334</v>
       </c>
       <c r="H10">
-        <v>15.6778584279293</v>
+        <v>49.39256200000001</v>
       </c>
       <c r="I10">
-        <v>0.08787003675252009</v>
+        <v>0.08840882145182853</v>
       </c>
       <c r="J10">
-        <v>0.08787003675252009</v>
+        <v>0.08840882145182853</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.83422320874641</v>
+        <v>7.8629</v>
       </c>
       <c r="N10">
-        <v>5.83422320874641</v>
+        <v>23.5887</v>
       </c>
       <c r="O10">
-        <v>0.2305407048457236</v>
+        <v>0.1459290348143631</v>
       </c>
       <c r="P10">
-        <v>0.2305407048457236</v>
+        <v>0.1459290348143631</v>
       </c>
       <c r="Q10">
-        <v>91.46812550366563</v>
+        <v>129.4562585832667</v>
       </c>
       <c r="R10">
-        <v>91.46812550366563</v>
+        <v>1165.1063272494</v>
       </c>
       <c r="S10">
-        <v>0.02025762020774562</v>
+        <v>0.0129014139835407</v>
       </c>
       <c r="T10">
-        <v>0.02025762020774562</v>
+        <v>0.0129014139835407</v>
       </c>
     </row>
   </sheetData>
